--- a/speed.xlsx
+++ b/speed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam_lau/iflytek/AVAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0BB022-32BE-5C46-880B-83F2E2E8B4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910633C4-42B1-9F4B-9A53-B72B6BC64ED8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="2800" windowWidth="28240" windowHeight="17440" xr2:uid="{DE334CEC-AE41-7E44-B0D9-2D3290CE87CA}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16500" xr2:uid="{DE334CEC-AE41-7E44-B0D9-2D3290CE87CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
